--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seejanj/Desktop/Learning/learnhlx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F5692-1E67-214D-AA00-F19819E01EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BB264-DCDA-8A46-84A5-79D557E84C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>google.com</t>
   </si>
   <si>
-    <t>/aboutus</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>/about</t>
   </si>
 </sst>
 </file>
@@ -294,25 +300,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seejanj/Desktop/Learning/learnhlx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BB264-DCDA-8A46-84A5-79D557E84C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6E05B-69DB-7C4A-B923-8E4553EEB16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>google.com</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>/about</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
   </si>
 </sst>
 </file>
@@ -54,8 +54,9 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,15 +76,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -303,25 +306,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
